--- a/data/aggregatedata.xlsx
+++ b/data/aggregatedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Classes\GEO575\unit3\unit-3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1650022-8587-407E-96B2-B8263FB4B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BDAFFE-211E-44C5-9825-8794A89824D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2610" windowWidth="24240" windowHeight="13020" xr2:uid="{A45D35C3-1287-4288-82DC-82563863FAC1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Belgium</t>
   </si>
@@ -146,28 +146,136 @@
     <t>Türkiye</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>:</t>
   </si>
   <si>
-    <t>Real GDP</t>
-  </si>
-  <si>
-    <t>UAA high input(ha)</t>
-  </si>
-  <si>
-    <t>Renewable Energy(%)</t>
-  </si>
-  <si>
-    <t>Terrestrial Protected Areas (%)</t>
-  </si>
-  <si>
-    <t>CO2 Emissions(tons)</t>
-  </si>
-  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>ABBREV</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t>CRO</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LIT</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>MAL</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>ROM</t>
+  </si>
+  <si>
+    <t>SER</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>SLO</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>SWI</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>real_gdp</t>
+  </si>
+  <si>
+    <t>uaa</t>
+  </si>
+  <si>
+    <t>renew_nrg</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>protect_area</t>
   </si>
 </sst>
 </file>
@@ -190,10 +298,12 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -260,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -280,9 +390,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -292,30 +399,8 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -323,20 +408,13 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,844 +752,948 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C109F4-7FDC-4EE9-973C-E3EC5DCCAEB8}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="22"/>
-    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>5190</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="6">
         <v>41.389000000000003</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="24">
+      <c r="G2" s="10"/>
+      <c r="H2" s="14">
         <v>349242964</v>
       </c>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>44520</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>1081484</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="7">
         <v>34.792000000000002</v>
       </c>
-      <c r="F3" s="18">
+      <c r="G3" s="6">
         <v>29.2</v>
       </c>
-      <c r="G3" s="21">
+      <c r="H3" s="12">
         <v>45072094.100000001</v>
       </c>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>42510</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>182816</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="6">
         <v>13.076000000000001</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="7">
         <v>14.7</v>
       </c>
-      <c r="G4" s="20">
+      <c r="H4" s="11">
         <v>69018533.109999999</v>
       </c>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>10250</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>2674047</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="7">
         <v>19.445</v>
       </c>
-      <c r="F5" s="16">
+      <c r="G5" s="4">
         <v>41</v>
       </c>
-      <c r="G5" s="21">
+      <c r="H5" s="12">
         <v>41128466.509999998</v>
       </c>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>14560</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>394695</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="6">
         <v>31.285</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="7">
         <v>38.1</v>
       </c>
-      <c r="G6" s="20">
+      <c r="H6" s="11">
         <v>12387731.33</v>
       </c>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>27680</v>
       </c>
-      <c r="D7" s="16">
+      <c r="E7" s="4">
         <v>10895</v>
       </c>
-      <c r="E7" s="18">
+      <c r="F7" s="6">
         <v>19.068999999999999</v>
       </c>
-      <c r="F7" s="19">
+      <c r="G7" s="7">
         <v>37.700000000000003</v>
       </c>
-      <c r="G7" s="25">
+      <c r="H7" s="11">
         <v>5459210.1299999999</v>
       </c>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>21830</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>1387664</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="6">
         <v>17.614000000000001</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="7">
         <v>21.9</v>
       </c>
-      <c r="G8" s="20">
+      <c r="H8" s="11">
         <v>76676215.920000002</v>
       </c>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>57250</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>684940</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="7">
         <v>41.813000000000002</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="6">
         <v>14.9</v>
       </c>
-      <c r="G9" s="21">
+      <c r="H9" s="12">
         <v>68746022.730000004</v>
       </c>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>22440</v>
       </c>
-      <c r="D10" s="17">
+      <c r="E10" s="5">
         <v>613647</v>
       </c>
-      <c r="E10" s="19">
+      <c r="F10" s="7">
         <v>37.341999999999999</v>
       </c>
-      <c r="F10" s="18">
+      <c r="G10" s="6">
         <v>20.9</v>
       </c>
-      <c r="G10" s="26">
+      <c r="H10" s="12">
         <v>9631930.0299999993</v>
       </c>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>43800</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>579178</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="7">
         <v>42.853999999999999</v>
       </c>
-      <c r="F11" s="18">
+      <c r="G11" s="6">
         <v>13.3</v>
       </c>
-      <c r="G11" s="21">
+      <c r="H11" s="12">
         <v>34103501.659999996</v>
       </c>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>36510</v>
       </c>
-      <c r="D12" s="17">
+      <c r="E12" s="5">
         <v>9792401</v>
       </c>
-      <c r="E12" s="19">
+      <c r="F12" s="7">
         <v>19.315999999999999</v>
       </c>
-      <c r="F12" s="16">
+      <c r="G12" s="4">
         <v>28</v>
       </c>
-      <c r="G12" s="26">
+      <c r="H12" s="12">
         <v>239180438.62</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>42990</v>
       </c>
-      <c r="D13" s="16">
+      <c r="E13" s="4">
         <v>6178505</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="6">
         <v>19.280999999999999</v>
       </c>
-      <c r="F13" s="19">
+      <c r="G13" s="7">
         <v>37.4</v>
       </c>
-      <c r="G13" s="25">
+      <c r="H13" s="11">
         <v>539064362.44000006</v>
       </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>17110</v>
       </c>
-      <c r="D14" s="17">
+      <c r="E14" s="5">
         <v>867690</v>
       </c>
-      <c r="E14" s="19">
+      <c r="F14" s="7">
         <v>22.001000000000001</v>
       </c>
-      <c r="F14" s="18">
+      <c r="G14" s="6">
         <v>34.9</v>
       </c>
-      <c r="G14" s="26">
+      <c r="H14" s="12">
         <v>58404618.840000004</v>
       </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>15460</v>
       </c>
-      <c r="D15" s="16">
+      <c r="E15" s="4">
         <v>1861302</v>
       </c>
-      <c r="E15" s="18">
+      <c r="F15" s="6">
         <v>14.134</v>
       </c>
-      <c r="F15" s="19">
+      <c r="G15" s="7">
         <v>22.2</v>
       </c>
-      <c r="G15" s="25">
+      <c r="H15" s="11">
         <v>36048975.020000003</v>
       </c>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>55150</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19">
+      <c r="E16" s="5"/>
+      <c r="F16" s="7">
         <v>80.185000000000002</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="26">
+      <c r="G16" s="10"/>
+      <c r="H16" s="12">
         <v>3872976.33</v>
       </c>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>87260</v>
       </c>
-      <c r="D17" s="16">
+      <c r="E17" s="4">
         <v>2010808</v>
       </c>
-      <c r="E17" s="18">
+      <c r="F17" s="6">
         <v>12.996</v>
       </c>
-      <c r="F17" s="19">
+      <c r="G17" s="7">
         <v>13.9</v>
       </c>
-      <c r="G17" s="25">
+      <c r="H17" s="11">
         <v>30980283.68</v>
       </c>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>30760</v>
       </c>
-      <c r="D18" s="17">
+      <c r="E18" s="5">
         <v>3731489</v>
       </c>
-      <c r="E18" s="19">
+      <c r="F18" s="7">
         <v>18.882999999999999</v>
       </c>
-      <c r="F18" s="18">
+      <c r="G18" s="6">
         <v>21.4</v>
       </c>
-      <c r="G18" s="26">
+      <c r="H18" s="12">
         <v>242104205.96000001</v>
       </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>16580</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>910702</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="7">
         <v>42.095999999999997</v>
       </c>
-      <c r="F19" s="18">
+      <c r="G19" s="6">
         <v>18.2</v>
       </c>
-      <c r="G19" s="21">
+      <c r="H19" s="12">
         <v>6655388.0199999996</v>
       </c>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>19040</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>1576751</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="6">
         <v>28.166</v>
       </c>
-      <c r="F20" s="12">
+      <c r="G20" s="7">
         <v>17.100000000000001</v>
       </c>
-      <c r="G20" s="20">
+      <c r="H20" s="11">
         <v>16396189.109999999</v>
       </c>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>107850</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>63695</v>
       </c>
-      <c r="E21" s="8">
+      <c r="F21" s="7">
         <v>11.726000000000001</v>
       </c>
-      <c r="F21" s="11">
+      <c r="G21" s="6">
         <v>55.8</v>
       </c>
-      <c r="G21" s="24">
+      <c r="H21" s="14">
         <v>7367722</v>
       </c>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>31410</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="E22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="7">
         <v>12.631</v>
       </c>
-      <c r="F22" s="16">
+      <c r="G22" s="4">
         <v>29</v>
       </c>
-      <c r="G22" s="26">
+      <c r="H22" s="12">
         <v>2487478.71</v>
       </c>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>7640</v>
       </c>
-      <c r="E23" s="18">
+      <c r="F23" s="6">
         <v>39.890999999999998</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="10"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>49490</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>874995</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24" s="6">
         <v>13.116</v>
       </c>
-      <c r="F24" s="12">
+      <c r="G24" s="7">
         <v>26.5</v>
       </c>
-      <c r="G24" s="20">
+      <c r="H24" s="11">
         <v>126891000.92</v>
       </c>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>6170</v>
       </c>
-      <c r="E25" s="9">
+      <c r="F25" s="8">
         <v>17.8</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="10"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="E26" s="7">
+      <c r="D26" s="2"/>
+      <c r="F26" s="6">
         <v>74.025999999999996</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="20">
+      <c r="G26" s="10"/>
+      <c r="H26" s="11">
         <v>50386252.759999998</v>
       </c>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>15380</v>
       </c>
-      <c r="D27" s="16">
+      <c r="E27" s="4">
         <v>3991675</v>
       </c>
-      <c r="E27" s="18">
+      <c r="F27" s="6">
         <v>15.622999999999999</v>
       </c>
-      <c r="F27" s="19">
+      <c r="G27" s="7">
         <v>39.6</v>
       </c>
-      <c r="G27" s="25">
+      <c r="H27" s="11">
         <v>301953740.94</v>
       </c>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>20390</v>
       </c>
-      <c r="D28" s="17">
+      <c r="E28" s="5">
         <v>1187707</v>
       </c>
-      <c r="E28" s="19">
+      <c r="F28" s="7">
         <v>33.981999999999999</v>
       </c>
-      <c r="F28" s="18">
+      <c r="G28" s="6">
         <v>22.4</v>
       </c>
-      <c r="G28" s="26">
+      <c r="H28" s="12">
         <v>34562853.420000002</v>
       </c>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>12190</v>
       </c>
-      <c r="D29" s="16">
+      <c r="E29" s="4">
         <v>7753256</v>
       </c>
-      <c r="E29" s="18">
+      <c r="F29" s="6">
         <v>23.870999999999999</v>
       </c>
-      <c r="F29" s="19">
+      <c r="G29" s="7">
         <v>23.4</v>
       </c>
-      <c r="G29" s="25">
+      <c r="H29" s="11">
         <v>59881572.479999997</v>
       </c>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>7740</v>
       </c>
-      <c r="E30" s="19">
+      <c r="F30" s="7">
         <v>25.254999999999999</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="23">
+      <c r="G30" s="10"/>
+      <c r="H30" s="13">
         <v>43308686</v>
       </c>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>18330</v>
       </c>
-      <c r="D31" s="16">
+      <c r="E31" s="4">
         <v>979335</v>
       </c>
-      <c r="E31" s="18">
+      <c r="F31" s="6">
         <v>17.419</v>
       </c>
-      <c r="F31" s="19">
+      <c r="G31" s="7">
         <v>37.4</v>
       </c>
-      <c r="G31" s="25">
+      <c r="H31" s="11">
         <v>28705471.829999998</v>
       </c>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>24040</v>
       </c>
-      <c r="D32" s="17">
+      <c r="E32" s="5">
         <v>148037</v>
       </c>
-      <c r="E32" s="10">
+      <c r="F32" s="9">
         <v>25</v>
       </c>
-      <c r="F32" s="18">
+      <c r="G32" s="6">
         <v>40.4</v>
       </c>
-      <c r="G32" s="26">
+      <c r="H32" s="12">
         <v>10053994.640000001</v>
       </c>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>25440</v>
       </c>
-      <c r="D33" s="16">
+      <c r="E33" s="4">
         <v>8393072</v>
       </c>
-      <c r="E33" s="18">
+      <c r="F33" s="6">
         <v>20.55</v>
       </c>
-      <c r="F33" s="17">
+      <c r="G33" s="5">
         <v>28</v>
       </c>
-      <c r="G33" s="25">
+      <c r="H33" s="11">
         <v>174108191.72</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>48710</v>
       </c>
-      <c r="D34" s="16">
+      <c r="E34" s="4">
         <v>886604</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="6">
         <v>62.527000000000001</v>
       </c>
-      <c r="F34" s="17">
+      <c r="G34" s="5">
         <v>15</v>
       </c>
-      <c r="G34" s="25">
+      <c r="H34" s="11">
         <v>33666297.75</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>78880</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="26">
+      <c r="G35" s="10"/>
+      <c r="H35" s="12">
         <v>22238481.77</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>8300</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="13"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="6"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="10"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G36" xr:uid="{91C109F4-7FDC-4EE9-973C-E3EC5DCCAEB8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G36">
-      <sortCondition ref="B1:B36"/>
+  <autoFilter ref="C1:H36" xr:uid="{91C109F4-7FDC-4EE9-973C-E3EC5DCCAEB8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:H36">
+      <sortCondition ref="C1:C36"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
